--- a/해커톤/최종규격/해그린달6개월이내.xlsx
+++ b/해커톤/최종규격/해그린달6개월이내.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlska\Documents\Coala_study\해커톤\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS43VR\Documents\Coala_study\해커톤\최종규격\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340B908C-8BFF-47B6-8D8F-B2E7F15D6CAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0BDD24-DC4A-4B3D-A764-FB17E114D496}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="125">
   <si>
     <t>thumbnail</t>
   </si>
@@ -166,93 +166,6 @@
     <t>SUB) 궁금한 집순이 아줌마의 하루</t>
   </si>
   <si>
-    <t>Esra Kaya</t>
-  </si>
-  <si>
-    <t>ayliaii iii</t>
-  </si>
-  <si>
-    <t>인물/블로그</t>
-  </si>
-  <si>
-    <t>Soubi Akatsuna</t>
-  </si>
-  <si>
-    <t>Dopamin Queen</t>
-  </si>
-  <si>
-    <t>Sammy</t>
-  </si>
-  <si>
-    <t>;; belladona</t>
-  </si>
-  <si>
-    <t>Appolinaria Perestiane</t>
-  </si>
-  <si>
-    <t>Buse Kurt</t>
-  </si>
-  <si>
-    <t>Вика Нилова</t>
-  </si>
-  <si>
-    <t>ELAF</t>
-  </si>
-  <si>
-    <t>kaw tar</t>
-  </si>
-  <si>
-    <t>Korenda _</t>
-  </si>
-  <si>
-    <t>marinika</t>
-  </si>
-  <si>
-    <t>alien stark</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>Nourah Ayman</t>
-  </si>
-  <si>
-    <t>Ольга Шикунова</t>
-  </si>
-  <si>
-    <t>Romy Navia</t>
-  </si>
-  <si>
-    <t>Thanh Trà Đinh</t>
-  </si>
-  <si>
-    <t>Minh Tâm Võ Huỳnh</t>
-  </si>
-  <si>
-    <t>dorin</t>
-  </si>
-  <si>
-    <t>koreanmoon</t>
-  </si>
-  <si>
-    <t>Thanh Huyền Hà</t>
-  </si>
-  <si>
-    <t>Maria Fernanda Perez</t>
-  </si>
-  <si>
-    <t>kinako</t>
-  </si>
-  <si>
-    <t>mima.203 3</t>
-  </si>
-  <si>
-    <t>عاشقة كوريا الوحيدة</t>
-  </si>
-  <si>
-    <t>Silvana Méndez</t>
-  </si>
-  <si>
     <t>12:46</t>
   </si>
   <si>
@@ -516,6 +429,10 @@
   </si>
   <si>
     <t>https://i.ytimg.com/vi/OBoAHofDC2s/hqdefault.jpg?sqp=-oaymwEZCNACELwBSFXyq4qpAwsIARUAAIhCGAFwAQ==&amp;rs=AOn4CLCz5d_ySQt5urue1PqTDl4FGGHQNg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일상</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -944,16 +861,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="144.125" customWidth="1"/>
-    <col min="4" max="4" width="32.125" customWidth="1"/>
-    <col min="5" max="5" width="30.875" customWidth="1"/>
-    <col min="6" max="6" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.375" customWidth="1"/>
+    <col min="5" max="5" width="30.875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -964,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -999,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1014,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="H2">
         <v>552932</v>
@@ -1029,7 +947,7 @@
         <v>43817</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="M2">
         <v>16</v>
@@ -1040,10 +958,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2">
         <v>1.5</v>
@@ -1055,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="H3">
         <v>546913</v>
@@ -1070,7 +988,7 @@
         <v>43787</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="M3">
         <v>16</v>
@@ -1081,10 +999,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2">
         <v>2.5</v>
@@ -1096,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="H4">
         <v>636068</v>
@@ -1111,7 +1029,7 @@
         <v>43769</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="M4">
         <v>16</v>
@@ -1122,10 +1040,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2">
         <v>1.5</v>
@@ -1137,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="H5">
         <v>1337522</v>
@@ -1152,7 +1070,7 @@
         <v>43755</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="M5">
         <v>16</v>
@@ -1163,10 +1081,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D6" s="2">
         <v>2.5</v>
@@ -1178,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="H6">
         <v>353242</v>
@@ -1193,7 +1111,7 @@
         <v>43732</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="M6">
         <v>16</v>
@@ -1204,10 +1122,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D7" s="2">
         <v>2.5</v>
@@ -1219,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="H7">
         <v>277159</v>
@@ -1234,7 +1152,7 @@
         <v>43719</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="M7">
         <v>16</v>
@@ -1245,10 +1163,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2">
         <v>1.5</v>
@@ -1260,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="H8">
         <v>1226117</v>
@@ -1275,7 +1193,7 @@
         <v>43703</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="M8">
         <v>16</v>
@@ -1286,10 +1204,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2">
         <v>1.5</v>
@@ -1301,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="H9">
         <v>916330</v>
@@ -1316,7 +1234,7 @@
         <v>43690</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="M9">
         <v>16</v>
@@ -1327,10 +1245,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2">
         <v>1.5</v>
@@ -1342,7 +1260,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="H10">
         <v>800078</v>
@@ -1357,7 +1275,7 @@
         <v>43677</v>
       </c>
       <c r="L10" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="M10">
         <v>16</v>
@@ -1368,10 +1286,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2">
         <v>1.5</v>
@@ -1383,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="H11">
         <v>263889</v>
@@ -1398,7 +1316,7 @@
         <v>43666</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="M11">
         <v>16</v>
@@ -1409,10 +1327,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="D12" s="2">
         <v>2.5</v>
@@ -1424,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="H12">
         <v>276553</v>
@@ -1439,7 +1357,7 @@
         <v>43661</v>
       </c>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="M12">
         <v>16</v>
@@ -1450,10 +1368,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="D13" s="2">
         <v>1.5</v>
@@ -1465,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="H13">
         <v>297236</v>
@@ -1480,7 +1398,7 @@
         <v>43657</v>
       </c>
       <c r="L13" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="M13">
         <v>16</v>
@@ -1491,10 +1409,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2">
         <v>1.5</v>
@@ -1506,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="H14">
         <v>568403</v>
@@ -1521,7 +1439,7 @@
         <v>43646</v>
       </c>
       <c r="L14" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="M14">
         <v>16</v>
@@ -1532,10 +1450,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D15" s="2">
         <v>1.5</v>
@@ -1547,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="H15">
         <v>638982</v>
@@ -1562,7 +1480,7 @@
         <v>43636</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="M15">
         <v>16</v>
@@ -1573,10 +1491,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="D16" s="2">
         <v>1.5</v>
@@ -1588,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="H16">
         <v>808597</v>
@@ -1603,7 +1521,7 @@
         <v>43625</v>
       </c>
       <c r="L16" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="M16">
         <v>16</v>
@@ -1614,10 +1532,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2">
         <v>1.5</v>
@@ -1629,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="H17">
         <v>3432488</v>
@@ -1644,7 +1562,7 @@
         <v>43616</v>
       </c>
       <c r="L17" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="M17">
         <v>16</v>
@@ -1655,10 +1573,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D18" s="2">
         <v>1.5</v>
@@ -1670,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="H18">
         <v>537861</v>
@@ -1685,7 +1603,7 @@
         <v>43609</v>
       </c>
       <c r="L18" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="M18">
         <v>16</v>
@@ -1696,10 +1614,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2">
         <v>1.5</v>
@@ -1711,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="H19">
         <v>586040</v>
@@ -1726,7 +1644,7 @@
         <v>43605</v>
       </c>
       <c r="L19" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="M19">
         <v>16</v>
@@ -1737,10 +1655,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="D20" s="2">
         <v>1.5</v>
@@ -1752,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="H20">
         <v>3144453</v>
@@ -1767,7 +1685,7 @@
         <v>43596</v>
       </c>
       <c r="L20" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="M20">
         <v>16</v>
@@ -1778,10 +1696,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="D21" s="2">
         <v>1.5</v>
@@ -1793,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="H21">
         <v>813660</v>
@@ -1808,7 +1726,7 @@
         <v>43581</v>
       </c>
       <c r="L21" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="M21">
         <v>16</v>
@@ -1819,10 +1737,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2">
         <v>1.5</v>
@@ -1834,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="H22">
         <v>751887</v>
@@ -1849,7 +1767,7 @@
         <v>43568</v>
       </c>
       <c r="L22" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="M22">
         <v>16</v>
@@ -1860,10 +1778,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="D23" s="2">
         <v>1.5</v>
@@ -1875,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="H23">
         <v>431339</v>
@@ -1890,7 +1808,7 @@
         <v>43558</v>
       </c>
       <c r="L23" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="M23">
         <v>16</v>
@@ -1901,10 +1819,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="D24" s="2">
         <v>1.5</v>
@@ -1916,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="H24">
         <v>687127</v>
@@ -1931,7 +1849,7 @@
         <v>43554</v>
       </c>
       <c r="L24" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="M24">
         <v>16</v>
@@ -1942,10 +1860,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="D25" s="2">
         <v>1.5</v>
@@ -1957,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="H25">
         <v>462835</v>
@@ -1972,7 +1890,7 @@
         <v>43534</v>
       </c>
       <c r="L25" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="M25">
         <v>16</v>
@@ -1983,10 +1901,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="D26" s="2">
         <v>1.5</v>
@@ -1998,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="H26">
         <v>267032</v>
@@ -2013,7 +1931,7 @@
         <v>43524</v>
       </c>
       <c r="L26" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="M26">
         <v>16</v>
@@ -2024,10 +1942,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="D27" s="2">
         <v>1.5</v>
@@ -2039,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="H27">
         <v>514827</v>
@@ -2054,7 +1972,7 @@
         <v>43516</v>
       </c>
       <c r="L27" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="M27">
         <v>16</v>
@@ -2065,10 +1983,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="D28" s="2">
         <v>1.5</v>
@@ -2080,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="H28">
         <v>1063349</v>
@@ -2095,7 +2013,7 @@
         <v>43507</v>
       </c>
       <c r="L28" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="M28">
         <v>16</v>
@@ -2106,10 +2024,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D29" s="2">
         <v>1.5</v>
@@ -2121,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="H29">
         <v>922348</v>
@@ -2136,7 +2054,7 @@
         <v>43497</v>
       </c>
       <c r="L29" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="M29">
         <v>16</v>
@@ -2147,10 +2065,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="D30" s="2">
         <v>1.5</v>
@@ -2162,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="H30">
         <v>817151</v>
@@ -2177,7 +2095,7 @@
         <v>43489</v>
       </c>
       <c r="L30" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="M30">
         <v>16</v>
@@ -2188,10 +2106,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="D31" s="2">
         <v>1.5</v>
@@ -2203,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="H31">
         <v>424046</v>
@@ -2218,7 +2136,7 @@
         <v>43480</v>
       </c>
       <c r="L31" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="M31">
         <v>16</v>
@@ -2229,10 +2147,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="D32" s="2">
         <v>1.5</v>
@@ -2244,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="H32">
         <v>261269</v>
@@ -2259,7 +2177,7 @@
         <v>43472</v>
       </c>
       <c r="L32" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="M32">
         <v>16</v>
@@ -2270,10 +2188,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D33" s="2">
         <v>2.5</v>
@@ -2285,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="H33">
         <v>1698233</v>
@@ -2300,7 +2218,7 @@
         <v>43470</v>
       </c>
       <c r="L33" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="M33">
         <v>16</v>
@@ -2311,10 +2229,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="D34" s="2">
         <v>2.5</v>
@@ -2326,7 +2244,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="H34">
         <v>1556282</v>
@@ -2341,7 +2259,7 @@
         <v>43470</v>
       </c>
       <c r="L34" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="M34">
         <v>16</v>
@@ -2352,10 +2270,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="D35" s="2">
         <v>1.5</v>
@@ -2367,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="H35">
         <v>142041</v>
@@ -2382,7 +2300,7 @@
         <v>43461</v>
       </c>
       <c r="L35" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="M35">
         <v>16</v>
@@ -2393,10 +2311,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D36" s="2">
         <v>1.5</v>
@@ -2408,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="H36">
         <v>427085</v>
@@ -2423,7 +2341,7 @@
         <v>43451</v>
       </c>
       <c r="L36" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="M36">
         <v>16</v>
@@ -2434,10 +2352,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="D37" s="2">
         <v>1.5</v>
@@ -2449,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="H37">
         <v>181589</v>
@@ -2464,7 +2382,7 @@
         <v>43430</v>
       </c>
       <c r="L37" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="M37">
         <v>16</v>
@@ -2475,10 +2393,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="D38" s="2">
         <v>1.5</v>
@@ -2490,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="H38">
         <v>146945</v>
@@ -2505,7 +2423,7 @@
         <v>43415</v>
       </c>
       <c r="L38" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="M38">
         <v>16</v>
